--- a/csv/model/sector_ethanol/formula_sector_ethanol_MB.xlsx
+++ b/csv/model/sector_ethanol/formula_sector_ethanol_MB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Brad_Griffin\CIMS\cims-models\csv\model\sector_ethanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\sector_ethanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFD3602C-8070-4433-8558-7E8B2FE87AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41651FC1-D2EF-4575-A41E-9030757AD923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8137126-56B4-4612-BE66-BC6A0EEA0FB2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{19457762-367E-4929-84A0-27037CEF5380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="106">
   <si>
-    <t>CIMS.CAN.MB.Biodiesel.Steam</t>
+    <t>CIMS.CAN.MB.Ethanol.Steam</t>
   </si>
   <si>
     <t>&lt;-- Navigate by typing to search</t>
@@ -297,9 +297,6 @@
     <t>unit</t>
   </si>
   <si>
-    <t>CIMS.CAN.MB.Ethanol.Steam</t>
-  </si>
-  <si>
     <t>Cellulosic ethanol</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
   </si>
   <si>
     <t>Steam</t>
-  </si>
-  <si>
-    <t>Node Tech Compete</t>
   </si>
   <si>
     <t>Boilers Electric</t>
@@ -48968,11 +48962,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A59D6D-5A53-4888-BF95-2CC32795C3BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A756E2-1EF4-4F4F-BF9D-0CDBA1E59DEE}">
   <dimension ref="A1:X232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X245"/>
+      <selection sqref="A1:X232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51897,7 +51891,7 @@
         <v>54</v>
       </c>
       <c r="J53" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="L53" t="s">
         <v>19</v>
@@ -52138,7 +52132,7 @@
         <v>63</v>
       </c>
       <c r="F58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s">
         <v>7</v>
@@ -52161,7 +52155,7 @@
         <v>63</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s">
         <v>67</v>
@@ -52230,7 +52224,7 @@
         <v>63</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s">
         <v>69</v>
@@ -52299,7 +52293,7 @@
         <v>63</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s">
         <v>70</v>
@@ -52368,7 +52362,7 @@
         <v>63</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s">
         <v>60</v>
@@ -52397,7 +52391,7 @@
         <v>63</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s">
         <v>72</v>
@@ -52466,7 +52460,7 @@
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s">
         <v>73</v>
@@ -52535,7 +52529,7 @@
         <v>63</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s">
         <v>75</v>
@@ -52604,7 +52598,7 @@
         <v>63</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s">
         <v>54</v>
@@ -52676,13 +52670,13 @@
         <v>63</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s">
         <v>54</v>
       </c>
       <c r="J67" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="L67" t="s">
         <v>19</v>
@@ -52745,7 +52739,7 @@
         <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s">
         <v>18</v>
@@ -52768,7 +52762,7 @@
         <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s">
         <v>20</v>
@@ -52791,7 +52785,7 @@
         <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s">
         <v>65</v>
@@ -52857,7 +52851,7 @@
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s">
         <v>58</v>
@@ -52920,10 +52914,10 @@
         <v>17</v>
       </c>
       <c r="E72" t="s">
+        <v>79</v>
+      </c>
+      <c r="F72" t="s">
         <v>80</v>
-      </c>
-      <c r="F72" t="s">
-        <v>81</v>
       </c>
       <c r="G72" t="s">
         <v>7</v>
@@ -52943,10 +52937,10 @@
         <v>17</v>
       </c>
       <c r="E73" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" t="s">
         <v>80</v>
-      </c>
-      <c r="F73" t="s">
-        <v>81</v>
       </c>
       <c r="G73" t="s">
         <v>67</v>
@@ -53012,10 +53006,10 @@
         <v>17</v>
       </c>
       <c r="E74" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" t="s">
         <v>80</v>
-      </c>
-      <c r="F74" t="s">
-        <v>81</v>
       </c>
       <c r="G74" t="s">
         <v>69</v>
@@ -53081,10 +53075,10 @@
         <v>17</v>
       </c>
       <c r="E75" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" t="s">
         <v>80</v>
-      </c>
-      <c r="F75" t="s">
-        <v>81</v>
       </c>
       <c r="G75" t="s">
         <v>70</v>
@@ -53150,10 +53144,10 @@
         <v>17</v>
       </c>
       <c r="E76" t="s">
+        <v>79</v>
+      </c>
+      <c r="F76" t="s">
         <v>80</v>
-      </c>
-      <c r="F76" t="s">
-        <v>81</v>
       </c>
       <c r="G76" t="s">
         <v>60</v>
@@ -53179,10 +53173,10 @@
         <v>17</v>
       </c>
       <c r="E77" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" t="s">
         <v>80</v>
-      </c>
-      <c r="F77" t="s">
-        <v>81</v>
       </c>
       <c r="G77" t="s">
         <v>72</v>
@@ -53248,10 +53242,10 @@
         <v>17</v>
       </c>
       <c r="E78" t="s">
+        <v>79</v>
+      </c>
+      <c r="F78" t="s">
         <v>80</v>
-      </c>
-      <c r="F78" t="s">
-        <v>81</v>
       </c>
       <c r="G78" t="s">
         <v>73</v>
@@ -53317,10 +53311,10 @@
         <v>17</v>
       </c>
       <c r="E79" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" t="s">
         <v>80</v>
-      </c>
-      <c r="F79" t="s">
-        <v>81</v>
       </c>
       <c r="G79" t="s">
         <v>75</v>
@@ -53386,10 +53380,10 @@
         <v>17</v>
       </c>
       <c r="E80" t="s">
+        <v>79</v>
+      </c>
+      <c r="F80" t="s">
         <v>80</v>
-      </c>
-      <c r="F80" t="s">
-        <v>81</v>
       </c>
       <c r="G80" t="s">
         <v>54</v>
@@ -53458,10 +53452,10 @@
         <v>17</v>
       </c>
       <c r="E81" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" t="s">
         <v>80</v>
-      </c>
-      <c r="F81" t="s">
-        <v>81</v>
       </c>
       <c r="G81" t="s">
         <v>54</v>
@@ -53530,10 +53524,10 @@
         <v>17</v>
       </c>
       <c r="E82" t="s">
+        <v>79</v>
+      </c>
+      <c r="F82" t="s">
         <v>80</v>
-      </c>
-      <c r="F82" t="s">
-        <v>81</v>
       </c>
       <c r="G82" t="s">
         <v>54</v>
@@ -53602,10 +53596,10 @@
         <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G83" t="s">
         <v>7</v>
@@ -53625,10 +53619,10 @@
         <v>17</v>
       </c>
       <c r="E84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G84" t="s">
         <v>67</v>
@@ -53694,10 +53688,10 @@
         <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G85" t="s">
         <v>69</v>
@@ -53763,10 +53757,10 @@
         <v>17</v>
       </c>
       <c r="E86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G86" t="s">
         <v>70</v>
@@ -53832,10 +53826,10 @@
         <v>17</v>
       </c>
       <c r="E87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G87" t="s">
         <v>60</v>
@@ -53861,10 +53855,10 @@
         <v>17</v>
       </c>
       <c r="E88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G88" t="s">
         <v>72</v>
@@ -53930,10 +53924,10 @@
         <v>17</v>
       </c>
       <c r="E89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G89" t="s">
         <v>73</v>
@@ -53999,10 +53993,10 @@
         <v>17</v>
       </c>
       <c r="E90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G90" t="s">
         <v>75</v>
@@ -54068,10 +54062,10 @@
         <v>17</v>
       </c>
       <c r="E91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G91" t="s">
         <v>54</v>
@@ -54140,10 +54134,10 @@
         <v>17</v>
       </c>
       <c r="E92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G92" t="s">
         <v>54</v>
@@ -54212,10 +54206,10 @@
         <v>17</v>
       </c>
       <c r="E93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G93" t="s">
         <v>54</v>
@@ -54284,10 +54278,10 @@
         <v>17</v>
       </c>
       <c r="E94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G94" t="s">
         <v>7</v>
@@ -54307,10 +54301,10 @@
         <v>17</v>
       </c>
       <c r="E95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G95" t="s">
         <v>67</v>
@@ -54376,10 +54370,10 @@
         <v>17</v>
       </c>
       <c r="E96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G96" t="s">
         <v>69</v>
@@ -54445,10 +54439,10 @@
         <v>17</v>
       </c>
       <c r="E97" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F97" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G97" t="s">
         <v>70</v>
@@ -54514,10 +54508,10 @@
         <v>17</v>
       </c>
       <c r="E98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G98" t="s">
         <v>60</v>
@@ -54543,10 +54537,10 @@
         <v>17</v>
       </c>
       <c r="E99" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G99" t="s">
         <v>72</v>
@@ -54612,10 +54606,10 @@
         <v>17</v>
       </c>
       <c r="E100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F100" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G100" t="s">
         <v>73</v>
@@ -54681,10 +54675,10 @@
         <v>17</v>
       </c>
       <c r="E101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G101" t="s">
         <v>75</v>
@@ -54750,10 +54744,10 @@
         <v>17</v>
       </c>
       <c r="E102" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G102" t="s">
         <v>54</v>
@@ -54822,10 +54816,10 @@
         <v>17</v>
       </c>
       <c r="E103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F103" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G103" t="s">
         <v>54</v>
@@ -54894,10 +54888,10 @@
         <v>17</v>
       </c>
       <c r="E104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F104" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G104" t="s">
         <v>54</v>
@@ -54954,7 +54948,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -54966,7 +54960,7 @@
         <v>17</v>
       </c>
       <c r="E105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G105" t="s">
         <v>18</v>
@@ -54977,7 +54971,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -54989,18 +54983,18 @@
         <v>17</v>
       </c>
       <c r="E106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G106" t="s">
         <v>20</v>
       </c>
       <c r="H106" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -55012,7 +55006,7 @@
         <v>17</v>
       </c>
       <c r="E107" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G107" t="s">
         <v>65</v>
@@ -55066,7 +55060,7 @@
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -55078,7 +55072,7 @@
         <v>17</v>
       </c>
       <c r="E108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G108" t="s">
         <v>58</v>
@@ -55129,7 +55123,7 @@
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -55141,10 +55135,10 @@
         <v>17</v>
       </c>
       <c r="E109" t="s">
+        <v>83</v>
+      </c>
+      <c r="F109" t="s">
         <v>84</v>
-      </c>
-      <c r="F109" t="s">
-        <v>86</v>
       </c>
       <c r="G109" t="s">
         <v>7</v>
@@ -55152,7 +55146,7 @@
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -55164,10 +55158,10 @@
         <v>17</v>
       </c>
       <c r="E110" t="s">
+        <v>83</v>
+      </c>
+      <c r="F110" t="s">
         <v>84</v>
-      </c>
-      <c r="F110" t="s">
-        <v>86</v>
       </c>
       <c r="G110" t="s">
         <v>67</v>
@@ -55221,7 +55215,7 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -55233,10 +55227,10 @@
         <v>17</v>
       </c>
       <c r="E111" t="s">
+        <v>83</v>
+      </c>
+      <c r="F111" t="s">
         <v>84</v>
-      </c>
-      <c r="F111" t="s">
-        <v>86</v>
       </c>
       <c r="G111" t="s">
         <v>69</v>
@@ -55290,7 +55284,7 @@
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -55302,10 +55296,10 @@
         <v>17</v>
       </c>
       <c r="E112" t="s">
+        <v>83</v>
+      </c>
+      <c r="F112" t="s">
         <v>84</v>
-      </c>
-      <c r="F112" t="s">
-        <v>86</v>
       </c>
       <c r="G112" t="s">
         <v>70</v>
@@ -55359,7 +55353,7 @@
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -55371,10 +55365,10 @@
         <v>17</v>
       </c>
       <c r="E113" t="s">
+        <v>83</v>
+      </c>
+      <c r="F113" t="s">
         <v>84</v>
-      </c>
-      <c r="F113" t="s">
-        <v>86</v>
       </c>
       <c r="G113" t="s">
         <v>60</v>
@@ -55388,7 +55382,7 @@
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -55400,10 +55394,10 @@
         <v>17</v>
       </c>
       <c r="E114" t="s">
+        <v>83</v>
+      </c>
+      <c r="F114" t="s">
         <v>84</v>
-      </c>
-      <c r="F114" t="s">
-        <v>86</v>
       </c>
       <c r="G114" t="s">
         <v>72</v>
@@ -55457,7 +55451,7 @@
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -55469,10 +55463,10 @@
         <v>17</v>
       </c>
       <c r="E115" t="s">
+        <v>83</v>
+      </c>
+      <c r="F115" t="s">
         <v>84</v>
-      </c>
-      <c r="F115" t="s">
-        <v>86</v>
       </c>
       <c r="G115" t="s">
         <v>73</v>
@@ -55526,7 +55520,7 @@
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -55538,10 +55532,10 @@
         <v>17</v>
       </c>
       <c r="E116" t="s">
+        <v>83</v>
+      </c>
+      <c r="F116" t="s">
         <v>84</v>
-      </c>
-      <c r="F116" t="s">
-        <v>86</v>
       </c>
       <c r="G116" t="s">
         <v>75</v>
@@ -55595,7 +55589,7 @@
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -55607,10 +55601,10 @@
         <v>17</v>
       </c>
       <c r="E117" t="s">
+        <v>83</v>
+      </c>
+      <c r="F117" t="s">
         <v>84</v>
-      </c>
-      <c r="F117" t="s">
-        <v>86</v>
       </c>
       <c r="G117" t="s">
         <v>54</v>
@@ -55667,7 +55661,7 @@
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -55679,10 +55673,10 @@
         <v>17</v>
       </c>
       <c r="E118" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F118" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G118" t="s">
         <v>7</v>
@@ -55690,7 +55684,7 @@
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -55702,10 +55696,10 @@
         <v>17</v>
       </c>
       <c r="E119" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F119" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G119" t="s">
         <v>67</v>
@@ -55759,7 +55753,7 @@
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -55771,10 +55765,10 @@
         <v>17</v>
       </c>
       <c r="E120" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F120" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G120" t="s">
         <v>69</v>
@@ -55828,7 +55822,7 @@
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -55840,10 +55834,10 @@
         <v>17</v>
       </c>
       <c r="E121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F121" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G121" t="s">
         <v>70</v>
@@ -55897,7 +55891,7 @@
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -55909,10 +55903,10 @@
         <v>17</v>
       </c>
       <c r="E122" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F122" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G122" t="s">
         <v>60</v>
@@ -55926,7 +55920,7 @@
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -55938,10 +55932,10 @@
         <v>17</v>
       </c>
       <c r="E123" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F123" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G123" t="s">
         <v>72</v>
@@ -55995,7 +55989,7 @@
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -56007,10 +56001,10 @@
         <v>17</v>
       </c>
       <c r="E124" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F124" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G124" t="s">
         <v>73</v>
@@ -56064,7 +56058,7 @@
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -56076,10 +56070,10 @@
         <v>17</v>
       </c>
       <c r="E125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F125" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G125" t="s">
         <v>75</v>
@@ -56133,7 +56127,7 @@
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -56145,10 +56139,10 @@
         <v>17</v>
       </c>
       <c r="E126" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F126" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G126" t="s">
         <v>54</v>
@@ -56205,7 +56199,7 @@
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -56217,10 +56211,10 @@
         <v>17</v>
       </c>
       <c r="E127" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F127" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G127" t="s">
         <v>7</v>
@@ -56228,7 +56222,7 @@
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -56240,10 +56234,10 @@
         <v>17</v>
       </c>
       <c r="E128" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F128" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G128" t="s">
         <v>67</v>
@@ -56297,7 +56291,7 @@
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -56309,10 +56303,10 @@
         <v>17</v>
       </c>
       <c r="E129" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F129" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G129" t="s">
         <v>69</v>
@@ -56366,7 +56360,7 @@
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -56378,10 +56372,10 @@
         <v>17</v>
       </c>
       <c r="E130" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F130" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G130" t="s">
         <v>70</v>
@@ -56435,7 +56429,7 @@
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -56447,10 +56441,10 @@
         <v>17</v>
       </c>
       <c r="E131" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F131" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G131" t="s">
         <v>60</v>
@@ -56464,7 +56458,7 @@
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -56476,10 +56470,10 @@
         <v>17</v>
       </c>
       <c r="E132" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F132" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G132" t="s">
         <v>72</v>
@@ -56533,7 +56527,7 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -56545,10 +56539,10 @@
         <v>17</v>
       </c>
       <c r="E133" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F133" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G133" t="s">
         <v>73</v>
@@ -56602,7 +56596,7 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -56614,10 +56608,10 @@
         <v>17</v>
       </c>
       <c r="E134" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F134" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G134" t="s">
         <v>75</v>
@@ -56671,7 +56665,7 @@
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -56683,10 +56677,10 @@
         <v>17</v>
       </c>
       <c r="E135" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F135" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G135" t="s">
         <v>54</v>
@@ -56743,7 +56737,7 @@
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -56755,10 +56749,10 @@
         <v>17</v>
       </c>
       <c r="E136" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F136" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G136" t="s">
         <v>7</v>
@@ -56766,7 +56760,7 @@
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
@@ -56778,10 +56772,10 @@
         <v>17</v>
       </c>
       <c r="E137" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F137" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G137" t="s">
         <v>67</v>
@@ -56835,7 +56829,7 @@
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
@@ -56847,10 +56841,10 @@
         <v>17</v>
       </c>
       <c r="E138" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F138" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G138" t="s">
         <v>69</v>
@@ -56904,7 +56898,7 @@
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
@@ -56916,10 +56910,10 @@
         <v>17</v>
       </c>
       <c r="E139" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F139" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G139" t="s">
         <v>70</v>
@@ -56973,7 +56967,7 @@
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
@@ -56985,10 +56979,10 @@
         <v>17</v>
       </c>
       <c r="E140" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F140" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G140" t="s">
         <v>60</v>
@@ -57002,7 +56996,7 @@
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
@@ -57014,10 +57008,10 @@
         <v>17</v>
       </c>
       <c r="E141" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F141" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G141" t="s">
         <v>72</v>
@@ -57071,7 +57065,7 @@
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
@@ -57083,10 +57077,10 @@
         <v>17</v>
       </c>
       <c r="E142" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F142" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G142" t="s">
         <v>73</v>
@@ -57140,7 +57134,7 @@
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -57152,10 +57146,10 @@
         <v>17</v>
       </c>
       <c r="E143" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F143" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G143" t="s">
         <v>75</v>
@@ -57209,7 +57203,7 @@
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
@@ -57221,10 +57215,10 @@
         <v>17</v>
       </c>
       <c r="E144" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F144" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G144" t="s">
         <v>54</v>
@@ -57281,7 +57275,7 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
@@ -57293,10 +57287,10 @@
         <v>17</v>
       </c>
       <c r="E145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F145" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G145" t="s">
         <v>54</v>
@@ -57353,7 +57347,7 @@
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
@@ -57365,16 +57359,16 @@
         <v>17</v>
       </c>
       <c r="E146" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F146" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G146" t="s">
         <v>54</v>
       </c>
       <c r="J146" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L146" t="s">
         <v>74</v>
@@ -57425,7 +57419,7 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -57437,10 +57431,10 @@
         <v>17</v>
       </c>
       <c r="E147" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F147" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G147" t="s">
         <v>7</v>
@@ -57448,7 +57442,7 @@
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -57460,10 +57454,10 @@
         <v>17</v>
       </c>
       <c r="E148" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F148" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G148" t="s">
         <v>67</v>
@@ -57517,7 +57511,7 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
@@ -57529,10 +57523,10 @@
         <v>17</v>
       </c>
       <c r="E149" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F149" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G149" t="s">
         <v>69</v>
@@ -57586,7 +57580,7 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
@@ -57598,10 +57592,10 @@
         <v>17</v>
       </c>
       <c r="E150" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F150" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G150" t="s">
         <v>70</v>
@@ -57655,7 +57649,7 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -57667,10 +57661,10 @@
         <v>17</v>
       </c>
       <c r="E151" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F151" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G151" t="s">
         <v>60</v>
@@ -57684,7 +57678,7 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -57696,10 +57690,10 @@
         <v>17</v>
       </c>
       <c r="E152" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F152" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G152" t="s">
         <v>72</v>
@@ -57753,7 +57747,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -57765,10 +57759,10 @@
         <v>17</v>
       </c>
       <c r="E153" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F153" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G153" t="s">
         <v>73</v>
@@ -57822,7 +57816,7 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -57834,10 +57828,10 @@
         <v>17</v>
       </c>
       <c r="E154" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F154" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G154" t="s">
         <v>75</v>
@@ -57891,7 +57885,7 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -57903,10 +57897,10 @@
         <v>17</v>
       </c>
       <c r="E155" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F155" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G155" t="s">
         <v>54</v>
@@ -57963,7 +57957,7 @@
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -57975,10 +57969,10 @@
         <v>17</v>
       </c>
       <c r="E156" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F156" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G156" t="s">
         <v>54</v>
@@ -58035,7 +58029,7 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -58047,16 +58041,16 @@
         <v>17</v>
       </c>
       <c r="E157" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F157" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G157" t="s">
         <v>54</v>
       </c>
       <c r="J157" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L157" t="s">
         <v>74</v>
@@ -58107,7 +58101,7 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -58119,10 +58113,10 @@
         <v>17</v>
       </c>
       <c r="E158" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F158" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G158" t="s">
         <v>7</v>
@@ -58130,7 +58124,7 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -58142,10 +58136,10 @@
         <v>17</v>
       </c>
       <c r="E159" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F159" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G159" t="s">
         <v>67</v>
@@ -58199,7 +58193,7 @@
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -58211,10 +58205,10 @@
         <v>17</v>
       </c>
       <c r="E160" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F160" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G160" t="s">
         <v>69</v>
@@ -58268,7 +58262,7 @@
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -58280,10 +58274,10 @@
         <v>17</v>
       </c>
       <c r="E161" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F161" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G161" t="s">
         <v>70</v>
@@ -58337,7 +58331,7 @@
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -58349,10 +58343,10 @@
         <v>17</v>
       </c>
       <c r="E162" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F162" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G162" t="s">
         <v>60</v>
@@ -58366,7 +58360,7 @@
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -58378,10 +58372,10 @@
         <v>17</v>
       </c>
       <c r="E163" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F163" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G163" t="s">
         <v>72</v>
@@ -58435,7 +58429,7 @@
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -58447,10 +58441,10 @@
         <v>17</v>
       </c>
       <c r="E164" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F164" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G164" t="s">
         <v>73</v>
@@ -58504,7 +58498,7 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -58516,10 +58510,10 @@
         <v>17</v>
       </c>
       <c r="E165" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F165" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G165" t="s">
         <v>75</v>
@@ -58573,7 +58567,7 @@
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -58585,10 +58579,10 @@
         <v>17</v>
       </c>
       <c r="E166" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F166" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G166" t="s">
         <v>54</v>
@@ -58645,7 +58639,7 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
@@ -58657,10 +58651,10 @@
         <v>17</v>
       </c>
       <c r="E167" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F167" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G167" t="s">
         <v>54</v>
@@ -58717,7 +58711,7 @@
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
@@ -58729,10 +58723,10 @@
         <v>17</v>
       </c>
       <c r="E168" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F168" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G168" t="s">
         <v>7</v>
@@ -58740,7 +58734,7 @@
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
@@ -58752,10 +58746,10 @@
         <v>17</v>
       </c>
       <c r="E169" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F169" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G169" t="s">
         <v>67</v>
@@ -58809,7 +58803,7 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
@@ -58821,10 +58815,10 @@
         <v>17</v>
       </c>
       <c r="E170" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F170" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G170" t="s">
         <v>69</v>
@@ -58878,7 +58872,7 @@
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
@@ -58890,10 +58884,10 @@
         <v>17</v>
       </c>
       <c r="E171" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F171" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G171" t="s">
         <v>70</v>
@@ -58947,7 +58941,7 @@
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
@@ -58959,10 +58953,10 @@
         <v>17</v>
       </c>
       <c r="E172" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F172" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G172" t="s">
         <v>60</v>
@@ -58976,7 +58970,7 @@
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
@@ -58988,10 +58982,10 @@
         <v>17</v>
       </c>
       <c r="E173" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F173" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G173" t="s">
         <v>72</v>
@@ -59045,7 +59039,7 @@
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
@@ -59057,10 +59051,10 @@
         <v>17</v>
       </c>
       <c r="E174" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F174" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G174" t="s">
         <v>73</v>
@@ -59114,7 +59108,7 @@
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
@@ -59126,10 +59120,10 @@
         <v>17</v>
       </c>
       <c r="E175" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F175" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G175" t="s">
         <v>75</v>
@@ -59183,7 +59177,7 @@
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
@@ -59195,10 +59189,10 @@
         <v>17</v>
       </c>
       <c r="E176" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F176" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G176" t="s">
         <v>54</v>
@@ -59255,7 +59249,7 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
@@ -59267,10 +59261,10 @@
         <v>17</v>
       </c>
       <c r="E177" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F177" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G177" t="s">
         <v>54</v>
@@ -59327,7 +59321,7 @@
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
@@ -59339,10 +59333,10 @@
         <v>17</v>
       </c>
       <c r="E178" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F178" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G178" t="s">
         <v>7</v>
@@ -59350,7 +59344,7 @@
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
@@ -59362,10 +59356,10 @@
         <v>17</v>
       </c>
       <c r="E179" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F179" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G179" t="s">
         <v>67</v>
@@ -59419,7 +59413,7 @@
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
@@ -59431,10 +59425,10 @@
         <v>17</v>
       </c>
       <c r="E180" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F180" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G180" t="s">
         <v>69</v>
@@ -59488,7 +59482,7 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
@@ -59500,10 +59494,10 @@
         <v>17</v>
       </c>
       <c r="E181" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F181" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G181" t="s">
         <v>70</v>
@@ -59557,7 +59551,7 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -59569,10 +59563,10 @@
         <v>17</v>
       </c>
       <c r="E182" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F182" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G182" t="s">
         <v>60</v>
@@ -59586,7 +59580,7 @@
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -59598,10 +59592,10 @@
         <v>17</v>
       </c>
       <c r="E183" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F183" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G183" t="s">
         <v>72</v>
@@ -59655,7 +59649,7 @@
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -59667,10 +59661,10 @@
         <v>17</v>
       </c>
       <c r="E184" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F184" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G184" t="s">
         <v>73</v>
@@ -59724,7 +59718,7 @@
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -59736,10 +59730,10 @@
         <v>17</v>
       </c>
       <c r="E185" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F185" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G185" t="s">
         <v>75</v>
@@ -59793,7 +59787,7 @@
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -59805,10 +59799,10 @@
         <v>17</v>
       </c>
       <c r="E186" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F186" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G186" t="s">
         <v>54</v>
@@ -59865,7 +59859,7 @@
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -59877,10 +59871,10 @@
         <v>17</v>
       </c>
       <c r="E187" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F187" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G187" t="s">
         <v>54</v>
@@ -59937,7 +59931,7 @@
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -59949,10 +59943,10 @@
         <v>17</v>
       </c>
       <c r="E188" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F188" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G188" t="s">
         <v>7</v>
@@ -59960,7 +59954,7 @@
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -59972,10 +59966,10 @@
         <v>17</v>
       </c>
       <c r="E189" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F189" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G189" t="s">
         <v>67</v>
@@ -60029,7 +60023,7 @@
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -60041,10 +60035,10 @@
         <v>17</v>
       </c>
       <c r="E190" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F190" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G190" t="s">
         <v>69</v>
@@ -60098,7 +60092,7 @@
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -60110,10 +60104,10 @@
         <v>17</v>
       </c>
       <c r="E191" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F191" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G191" t="s">
         <v>70</v>
@@ -60167,7 +60161,7 @@
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -60179,10 +60173,10 @@
         <v>17</v>
       </c>
       <c r="E192" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F192" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G192" t="s">
         <v>60</v>
@@ -60196,7 +60190,7 @@
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -60208,10 +60202,10 @@
         <v>17</v>
       </c>
       <c r="E193" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F193" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G193" t="s">
         <v>72</v>
@@ -60265,7 +60259,7 @@
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -60277,10 +60271,10 @@
         <v>17</v>
       </c>
       <c r="E194" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F194" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G194" t="s">
         <v>73</v>
@@ -60334,7 +60328,7 @@
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -60346,10 +60340,10 @@
         <v>17</v>
       </c>
       <c r="E195" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F195" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G195" t="s">
         <v>75</v>
@@ -60403,7 +60397,7 @@
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -60415,10 +60409,10 @@
         <v>17</v>
       </c>
       <c r="E196" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F196" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G196" t="s">
         <v>54</v>
@@ -60475,7 +60469,7 @@
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
@@ -60487,10 +60481,10 @@
         <v>17</v>
       </c>
       <c r="E197" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F197" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G197" t="s">
         <v>54</v>
@@ -60547,7 +60541,7 @@
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
@@ -60559,16 +60553,16 @@
         <v>17</v>
       </c>
       <c r="E198" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F198" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G198" t="s">
         <v>54</v>
       </c>
       <c r="J198" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L198" t="s">
         <v>74</v>
@@ -60619,7 +60613,7 @@
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
@@ -60631,7 +60625,7 @@
         <v>17</v>
       </c>
       <c r="E199" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G199" t="s">
         <v>18</v>
@@ -60642,7 +60636,7 @@
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
@@ -60654,18 +60648,18 @@
         <v>17</v>
       </c>
       <c r="E200" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G200" t="s">
         <v>20</v>
       </c>
       <c r="H200" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
@@ -60677,16 +60671,16 @@
         <v>17</v>
       </c>
       <c r="E201" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G201" t="s">
         <v>54</v>
       </c>
       <c r="J201" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K201" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L201" t="s">
         <v>47</v>
@@ -60737,7 +60731,7 @@
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
@@ -60749,16 +60743,16 @@
         <v>17</v>
       </c>
       <c r="E202" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G202" t="s">
         <v>54</v>
       </c>
       <c r="J202" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K202" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L202" t="s">
         <v>47</v>
@@ -60809,7 +60803,7 @@
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
@@ -60821,7 +60815,7 @@
         <v>17</v>
       </c>
       <c r="E203" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G203" t="s">
         <v>18</v>
@@ -60832,7 +60826,7 @@
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
@@ -60844,7 +60838,7 @@
         <v>17</v>
       </c>
       <c r="E204" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G204" t="s">
         <v>20</v>
@@ -60855,7 +60849,7 @@
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
@@ -60867,13 +60861,13 @@
         <v>17</v>
       </c>
       <c r="E205" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G205" t="s">
         <v>65</v>
       </c>
       <c r="K205" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L205" t="s">
         <v>61</v>
@@ -60924,7 +60918,7 @@
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
@@ -60936,7 +60930,7 @@
         <v>17</v>
       </c>
       <c r="E206" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G206" t="s">
         <v>58</v>
@@ -60987,7 +60981,7 @@
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
@@ -60999,10 +60993,10 @@
         <v>17</v>
       </c>
       <c r="E207" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F207" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G207" t="s">
         <v>7</v>
@@ -61010,7 +61004,7 @@
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
@@ -61022,16 +61016,16 @@
         <v>17</v>
       </c>
       <c r="E208" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F208" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G208" t="s">
         <v>67</v>
       </c>
       <c r="K208" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L208" t="s">
         <v>68</v>
@@ -61082,7 +61076,7 @@
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
@@ -61094,16 +61088,16 @@
         <v>17</v>
       </c>
       <c r="E209" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F209" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G209" t="s">
         <v>69</v>
       </c>
       <c r="K209" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L209" t="s">
         <v>68</v>
@@ -61154,7 +61148,7 @@
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
@@ -61166,16 +61160,16 @@
         <v>17</v>
       </c>
       <c r="E210" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F210" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G210" t="s">
         <v>70</v>
       </c>
       <c r="K210" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L210" t="s">
         <v>71</v>
@@ -61226,7 +61220,7 @@
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
@@ -61238,16 +61232,16 @@
         <v>17</v>
       </c>
       <c r="E211" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F211" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G211" t="s">
         <v>60</v>
       </c>
       <c r="K211" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L211" t="s">
         <v>61</v>
@@ -61258,7 +61252,7 @@
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -61270,16 +61264,16 @@
         <v>17</v>
       </c>
       <c r="E212" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F212" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G212" t="s">
         <v>72</v>
       </c>
       <c r="K212" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L212" t="s">
         <v>47</v>
@@ -61330,7 +61324,7 @@
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -61342,16 +61336,16 @@
         <v>17</v>
       </c>
       <c r="E213" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F213" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G213" t="s">
         <v>73</v>
       </c>
       <c r="K213" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L213" t="s">
         <v>74</v>
@@ -61402,7 +61396,7 @@
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -61414,16 +61408,16 @@
         <v>17</v>
       </c>
       <c r="E214" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F214" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G214" t="s">
         <v>75</v>
       </c>
       <c r="K214" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L214" t="s">
         <v>74</v>
@@ -61474,7 +61468,7 @@
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -61486,10 +61480,10 @@
         <v>17</v>
       </c>
       <c r="E215" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F215" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G215" t="s">
         <v>54</v>
@@ -61498,7 +61492,7 @@
         <v>27</v>
       </c>
       <c r="K215" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L215" t="s">
         <v>19</v>
@@ -61549,7 +61543,7 @@
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -61561,19 +61555,19 @@
         <v>17</v>
       </c>
       <c r="E216" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F216" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G216" t="s">
         <v>54</v>
       </c>
       <c r="J216" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K216" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L216" t="s">
         <v>74</v>
@@ -61624,7 +61618,7 @@
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -61636,13 +61630,13 @@
         <v>17</v>
       </c>
       <c r="E217" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F217" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G217" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H217" t="s">
         <v>45</v>
@@ -61651,7 +61645,7 @@
         <v>46</v>
       </c>
       <c r="K217" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L217" t="s">
         <v>61</v>
@@ -61702,7 +61696,7 @@
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -61714,7 +61708,7 @@
         <v>17</v>
       </c>
       <c r="E218" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G218" t="s">
         <v>18</v>
@@ -61725,7 +61719,7 @@
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -61737,7 +61731,7 @@
         <v>17</v>
       </c>
       <c r="E219" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G219" t="s">
         <v>20</v>
@@ -61748,7 +61742,7 @@
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -61760,13 +61754,13 @@
         <v>17</v>
       </c>
       <c r="E220" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G220" t="s">
         <v>65</v>
       </c>
       <c r="K220" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L220" t="s">
         <v>61</v>
@@ -61817,7 +61811,7 @@
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -61829,7 +61823,7 @@
         <v>17</v>
       </c>
       <c r="E221" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G221" t="s">
         <v>58</v>
@@ -61880,7 +61874,7 @@
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -61892,10 +61886,10 @@
         <v>17</v>
       </c>
       <c r="E222" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F222" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G222" t="s">
         <v>7</v>
@@ -61903,7 +61897,7 @@
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -61915,16 +61909,16 @@
         <v>17</v>
       </c>
       <c r="E223" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F223" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G223" t="s">
         <v>67</v>
       </c>
       <c r="K223" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L223" t="s">
         <v>68</v>
@@ -61975,7 +61969,7 @@
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -61987,16 +61981,16 @@
         <v>17</v>
       </c>
       <c r="E224" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F224" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G224" t="s">
         <v>69</v>
       </c>
       <c r="K224" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L224" t="s">
         <v>68</v>
@@ -62047,7 +62041,7 @@
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -62059,16 +62053,16 @@
         <v>17</v>
       </c>
       <c r="E225" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F225" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G225" t="s">
         <v>70</v>
       </c>
       <c r="K225" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L225" t="s">
         <v>71</v>
@@ -62119,7 +62113,7 @@
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -62131,16 +62125,16 @@
         <v>17</v>
       </c>
       <c r="E226" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F226" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G226" t="s">
         <v>60</v>
       </c>
       <c r="K226" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L226" t="s">
         <v>61</v>
@@ -62151,7 +62145,7 @@
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B227" t="s">
         <v>6</v>
@@ -62163,16 +62157,16 @@
         <v>17</v>
       </c>
       <c r="E227" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F227" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G227" t="s">
         <v>72</v>
       </c>
       <c r="K227" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L227" t="s">
         <v>47</v>
@@ -62223,7 +62217,7 @@
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B228" t="s">
         <v>6</v>
@@ -62235,16 +62229,16 @@
         <v>17</v>
       </c>
       <c r="E228" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F228" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G228" t="s">
         <v>73</v>
       </c>
       <c r="K228" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L228" t="s">
         <v>74</v>
@@ -62295,7 +62289,7 @@
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B229" t="s">
         <v>6</v>
@@ -62307,16 +62301,16 @@
         <v>17</v>
       </c>
       <c r="E229" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F229" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G229" t="s">
         <v>75</v>
       </c>
       <c r="K229" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L229" t="s">
         <v>74</v>
@@ -62367,7 +62361,7 @@
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B230" t="s">
         <v>6</v>
@@ -62379,10 +62373,10 @@
         <v>17</v>
       </c>
       <c r="E230" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F230" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G230" t="s">
         <v>54</v>
@@ -62391,7 +62385,7 @@
         <v>37</v>
       </c>
       <c r="K230" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L230" t="s">
         <v>19</v>
@@ -62442,7 +62436,7 @@
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
@@ -62454,19 +62448,19 @@
         <v>17</v>
       </c>
       <c r="E231" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F231" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G231" t="s">
         <v>54</v>
       </c>
       <c r="J231" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K231" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L231" t="s">
         <v>74</v>
@@ -62517,7 +62511,7 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
@@ -62529,13 +62523,13 @@
         <v>17</v>
       </c>
       <c r="E232" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F232" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G232" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H232" t="s">
         <v>45</v>
@@ -62544,7 +62538,7 @@
         <v>46</v>
       </c>
       <c r="K232" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L232" t="s">
         <v>61</v>
